--- a/Wegpunkte.xlsx
+++ b/Wegpunkte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Patrick\TEKO\11_OOP\21_DijkstraAlgorithmus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59746F13-AE5B-4D54-8D20-5052EFA5DB91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43137A3B-A115-4FA6-9AC2-CB760BB42F6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D91C5201-5B98-4178-9CD8-906A5CD540C3}"/>
   </bookViews>
@@ -456,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AB6DD1-6F34-45C8-BFCC-3D168766FDDA}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>

--- a/Wegpunkte.xlsx
+++ b/Wegpunkte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Patrick\TEKO\11_OOP\21_DijkstraAlgorithmus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43137A3B-A115-4FA6-9AC2-CB760BB42F6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EA06AA-17C8-4D41-8DDC-C2F89AB776C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D91C5201-5B98-4178-9CD8-906A5CD540C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>A</t>
   </si>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AB6DD1-6F34-45C8-BFCC-3D168766FDDA}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,17 +781,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Wegpunkte.xlsx
+++ b/Wegpunkte.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Patrick\TEKO\11_OOP\21_DijkstraAlgorithmus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EA06AA-17C8-4D41-8DDC-C2F89AB776C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17000C4-14D1-4BCE-AD83-78ACE49252D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D91C5201-5B98-4178-9CD8-906A5CD540C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
   <si>
     <t>A</t>
   </si>
@@ -138,8 +138,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -454,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AB6DD1-6F34-45C8-BFCC-3D168766FDDA}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,255 +535,343 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C17" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="2">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29">
+      <c r="C37" s="2">
         <v>11</v>
       </c>
     </row>
